--- a/other/input/2017/summer_2017_wqx_data/Data/Tauriainen/Fecal_Coliform_Results_Spreadsheet_Summer2017.xlsx
+++ b/other/input/2017/summer_2017_wqx_data/Data/Tauriainen/Fecal_Coliform_Results_Spreadsheet_Summer2017.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\kenai-river-wqx-qaqc\other\input\2017\summer_2017_wqx_data\Data\Tauriainen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2017/summer_2017_wqx_data/Data/Tauriainen/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="129" documentId="11_0733ADDB5B7A2D8D09C6136FF337A2F781B34B3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B2084A-4380-4058-84F6-3EF432E99C09}"/>
   <bookViews>
-    <workbookView xWindow="32928" yWindow="48" windowWidth="21600" windowHeight="11292"/>
+    <workbookView xWindow="30045" yWindow="-1800" windowWidth="21600" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summer_2018_Fecal_Coliform" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
   <si>
     <t>Fecal Coliform Analysis</t>
   </si>
@@ -159,19 +160,28 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>RM_31_Morgans_Landing_DUP</t>
-  </si>
-  <si>
     <t>Date of Sampling: 7/25/2017</t>
   </si>
   <si>
     <t>RM_1.5_Kenai_City_Dock_DUP</t>
+  </si>
+  <si>
+    <t>sample had less than 100 ml</t>
+  </si>
+  <si>
+    <t>Neg</t>
+  </si>
+  <si>
+    <t>RM_36_Moose_River_DUP</t>
+  </si>
+  <si>
+    <t>BM 20240905</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -290,9 +300,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,44 +545,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="3"/>
-    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="3"/>
-    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="11" max="11" width="13.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -613,44 +623,79 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="6">
+        <v>55</v>
+      </c>
+      <c r="H6" s="6">
+        <f>G6</f>
+        <v>55</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J6" t="s">
         <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G7" s="6">
         <v>42</v>
       </c>
       <c r="H7" s="6">
+        <f t="shared" ref="H7:H29" si="0">G7</f>
         <v>42</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J7" t="s">
         <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -673,7 +718,7 @@
         <v>64</v>
       </c>
       <c r="H8" s="6">
-        <f>G8</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -683,359 +728,791 @@
         <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="2">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D9" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="6">
+        <v>18</v>
+      </c>
+      <c r="H9" s="6">
+        <f>G9</f>
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="2">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D10" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="6">
+        <v>317</v>
+      </c>
+      <c r="H10" s="6">
+        <f>G10</f>
+        <v>317</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J10" t="s">
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D11" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D12" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="2">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D13" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="6">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" t="s">
         <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D14" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J14" t="s">
         <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-      <c r="H15" s="6"/>
+      <c r="B15" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D15" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J15" t="s">
         <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2"/>
-      <c r="H16" s="6"/>
+      <c r="B16" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D16" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J16" t="s">
         <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="2">
+        <v>0.36527777777777776</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D17" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="6">
+        <v>64</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J17" t="s">
         <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D18" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="6">
+        <v>3</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J18" t="s">
         <v>39</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
-      <c r="H19" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D19" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J19" t="s">
         <v>39</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D20" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
-      <c r="H21" s="6"/>
+      <c r="B21" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D21" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="6">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J21" t="s">
         <v>39</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="2"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="2">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D22" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J22" t="s">
         <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="2"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="2">
+        <v>0.40833333333333333</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D23" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="6">
+        <v>24</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J23" t="s">
         <v>39</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="2"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="2">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D24" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J24" t="s">
         <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="2">
+        <v>0.39791666666666664</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D25" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="6">
+        <v>47</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
-      <c r="H26" s="6"/>
+      <c r="B26" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D26" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="2"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D27" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J27" t="s">
         <v>39</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="2"/>
-      <c r="H28" s="6"/>
+      <c r="B28" s="2">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D28" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="6">
+        <v>11</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J28" t="s">
         <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="2"/>
-      <c r="H29" s="6"/>
+      <c r="B29" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D29" s="5">
+        <v>42941</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J29" t="s">
         <v>39</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H30" s="6"/>
+      <c r="I30" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J30" t="s">
         <v>39</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A6:N29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:N29">
     <sortCondition ref="A6:A29"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,24 +1522,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
